--- a/biology/Botanique/Kush_(cannabis)/Kush_(cannabis).xlsx
+++ b/biology/Botanique/Kush_(cannabis)/Kush_(cannabis).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le kush fait référence à un sous-ensemble de souches de cannabis indica. Les origines du cannabis kush sont des variétés locales de plantes principalement d'Afghanistan [1] avec le nom provenant de la chaîne de montagnes hindu Kush. Les souches de cannabis "Hindu Kush" ont été amenées aux États-Unis dans les années 1970, et continuent d'être disponibles là-bas à ce jour[2].
-Les souches de Kush étaient parmi celles cultivées par la firme britannique GW Pharmaceuticals pour son essai commercial autorisé par la loi du cannabis médicinal[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le kush fait référence à un sous-ensemble de souches de cannabis indica. Les origines du cannabis kush sont des variétés locales de plantes principalement d'Afghanistan  avec le nom provenant de la chaîne de montagnes hindu Kush. Les souches de cannabis "Hindu Kush" ont été amenées aux États-Unis dans les années 1970, et continuent d'être disponibles là-bas à ce jour.
+Les souches de Kush étaient parmi celles cultivées par la firme britannique GW Pharmaceuticals pour son essai commercial autorisé par la loi du cannabis médicinal.
 Les principales souches de kush connues sont : Afghan Kush, Pakistani Kush, Af-pak (Afghan-Pakistani hybride), Chemo Kush, Tuna Kush, Hindu Kush, Bannana Kush, Tangerine Kush, Chitral Kush, LA Confidential, Master Kush, Bubba Kush, Pure Kush (aussi connue sur le nom de 'Original Kush' ou 'Kush'), Vanilla Kush, Purple Kush, Grapefruit Kush, Lavender Kush, Pink Kush, Pine Tar Kush, White Owl, Mango Kush, Sour Kush et Ultra Kush.
 Cependant la variété la plus célèbre et la plus appréciée dans la famille « kush » est sans doute la OG Kush, unique en son genre, très puissante, productive, et médicinale avec sa saveur prononcée et intense d'agrumes, de bois exotiques, soutenue par une forte odeur de combustible diesel.
 La dénomination OG Kush est sujette à certains désaccords  au sein  de la communauté cannabique. En effet, certains la nomment « Ocean grow kush » et d'autres « Original gangster kush ». Mais on sait aujourd'hui que le dénominatif OG provient de "Original".
-La kush a été popularisée aux États-Unis par le défunt rappeur 2Pac dans ses chansons, ainsi que Cypress Hill[4].
-Mélangée à des produits chimiques, cette drogue fait des ravages dans les bidonvilles du Sierra Leone[5].
+La kush a été popularisée aux États-Unis par le défunt rappeur 2Pac dans ses chansons, ainsi que Cypress Hill.
+Mélangée à des produits chimiques, cette drogue fait des ravages dans les bidonvilles du Sierra Leone.
 </t>
         </is>
       </c>
